--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1995651.710378092</v>
+        <v>-1998390.140580154</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>57.33710050925961</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>24.73668026021764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>68.36371136480309</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>115.2380060781514</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.14187568505439</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>123.4500863263556</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>235.7510981967101</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>130.5728707187984</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>154.3838484665988</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>223.578051838328</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>29.71835273089957</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>64.83556544767973</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>185.5741336097371</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>35.20501530162523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>114.2935157990524</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>170.8317276803708</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>140.1760114441846</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695621</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>40.96105405076471</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>166.3208822291519</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>245.8796921214435</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>95.2538199663615</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352484</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,10 +3247,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>621.3604480128761</v>
+        <v>1532.181469258642</v>
       </c>
       <c r="C2" t="n">
-        <v>621.3604480128761</v>
+        <v>1163.21895231823</v>
       </c>
       <c r="D2" t="n">
-        <v>563.4441848722098</v>
+        <v>804.9532537114794</v>
       </c>
       <c r="E2" t="n">
-        <v>563.4441848722098</v>
+        <v>804.9532537114794</v>
       </c>
       <c r="F2" t="n">
-        <v>563.4441848722098</v>
+        <v>804.9532537114794</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640844</v>
+        <v>388.500992403354</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>76.78640104021127</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723691</v>
+        <v>605.2571586872677</v>
       </c>
       <c r="L2" t="n">
-        <v>1005.745511445282</v>
+        <v>842.8799399054598</v>
       </c>
       <c r="M2" t="n">
-        <v>1301.816078002882</v>
+        <v>1138.950506463063</v>
       </c>
       <c r="N2" t="n">
-        <v>1607.291184238466</v>
+        <v>1444.425612698648</v>
       </c>
       <c r="O2" t="n">
-        <v>2248.31439385836</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2448.618721147462</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4361,19 +4361,19 @@
         <v>2377.974895202417</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.334033584003</v>
+        <v>2308.920641298575</v>
       </c>
       <c r="V2" t="n">
-        <v>2124.334033584003</v>
+        <v>2308.920641298575</v>
       </c>
       <c r="W2" t="n">
-        <v>1771.565378313889</v>
+        <v>2308.920641298575</v>
       </c>
       <c r="X2" t="n">
-        <v>1398.09962005281</v>
+        <v>2308.920641298575</v>
       </c>
       <c r="Y2" t="n">
-        <v>1007.960288076998</v>
+        <v>1918.781309322763</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072329</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>900.091414510487</v>
+        <v>1161.911999152943</v>
       </c>
       <c r="M3" t="n">
-        <v>1541.114624130381</v>
+        <v>1425.851530648431</v>
       </c>
       <c r="N3" t="n">
-        <v>2113.58070317412</v>
+        <v>1711.185401081764</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925577</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879286</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318.3185210767225</v>
+        <v>539.1111002202579</v>
       </c>
       <c r="C4" t="n">
-        <v>318.3185210767225</v>
+        <v>370.174917292351</v>
       </c>
       <c r="D4" t="n">
-        <v>168.2018816643868</v>
+        <v>220.0582778800153</v>
       </c>
       <c r="E4" t="n">
-        <v>168.2018816643868</v>
+        <v>72.14518429762214</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>72.14518429762214</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4486,52 +4486,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>1056.517821155231</v>
+        <v>1056.517821155236</v>
       </c>
       <c r="W4" t="n">
-        <v>767.10065111827</v>
+        <v>767.1006511182752</v>
       </c>
       <c r="X4" t="n">
-        <v>539.1111002202526</v>
+        <v>539.1111002202579</v>
       </c>
       <c r="Y4" t="n">
-        <v>318.3185210767225</v>
+        <v>539.1111002202579</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.655413419054</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="C5" t="n">
-        <v>832.6928964786418</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="D5" t="n">
-        <v>474.4271978718913</v>
+        <v>961.4937567413697</v>
       </c>
       <c r="E5" t="n">
-        <v>474.4271978718913</v>
+        <v>961.4937567413697</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104791</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135523</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W5" t="n">
-        <v>2351.860343720067</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="X5" t="n">
-        <v>1978.394585458987</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="Y5" t="n">
-        <v>1588.255253483175</v>
+        <v>1319.75945534812</v>
       </c>
     </row>
     <row r="6">
@@ -4653,19 +4653,19 @@
         <v>724.0888213291482</v>
       </c>
       <c r="M6" t="n">
-        <v>1090.394710821474</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>621.8827939306448</v>
+        <v>630.3689124895136</v>
       </c>
       <c r="C7" t="n">
-        <v>621.8827939306448</v>
+        <v>630.3689124895136</v>
       </c>
       <c r="D7" t="n">
-        <v>621.8827939306448</v>
+        <v>480.2522730771778</v>
       </c>
       <c r="E7" t="n">
-        <v>473.9697003482517</v>
+        <v>332.3391794947847</v>
       </c>
       <c r="F7" t="n">
-        <v>473.9697003482517</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G7" t="n">
-        <v>305.9935116101411</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4756,19 +4756,19 @@
         <v>1321.927733452885</v>
       </c>
       <c r="U7" t="n">
-        <v>1165.984452173492</v>
+        <v>1032.809956463283</v>
       </c>
       <c r="V7" t="n">
-        <v>911.2999639676054</v>
+        <v>1032.809956463283</v>
       </c>
       <c r="W7" t="n">
-        <v>621.8827939306448</v>
+        <v>1032.809956463283</v>
       </c>
       <c r="X7" t="n">
-        <v>621.8827939306448</v>
+        <v>1032.809956463283</v>
       </c>
       <c r="Y7" t="n">
-        <v>621.8827939306448</v>
+        <v>812.0173773197533</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1290.218920931041</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="C8" t="n">
-        <v>921.2564039906295</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="D8" t="n">
-        <v>562.990705383879</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="E8" t="n">
-        <v>562.990705383879</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718592</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
         <v>117.2903254719912</v>
@@ -4808,7 +4808,7 @@
         <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4832,22 +4832,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2050.284519256243</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W8" t="n">
-        <v>2050.284519256243</v>
+        <v>2237.224110870871</v>
       </c>
       <c r="X8" t="n">
-        <v>1676.818760995163</v>
+        <v>1863.758352609791</v>
       </c>
       <c r="Y8" t="n">
-        <v>1676.818760995163</v>
+        <v>1473.61902063398</v>
       </c>
     </row>
     <row r="9">
@@ -4866,16 +4866,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4887,19 +4887,19 @@
         <v>426.7768722128336</v>
       </c>
       <c r="L9" t="n">
-        <v>1067.800081832728</v>
+        <v>724.0888213291483</v>
       </c>
       <c r="M9" t="n">
-        <v>1434.105971325053</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N9" t="n">
-        <v>1824.515532650795</v>
+        <v>1480.804272147216</v>
       </c>
       <c r="O9" t="n">
-        <v>2170.651831027005</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P9" t="n">
-        <v>2420.128558892024</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q9" t="n">
         <v>2536.977948259489</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>687.4764019682912</v>
+        <v>814.303254310484</v>
       </c>
       <c r="C10" t="n">
-        <v>518.5402190403843</v>
+        <v>645.3670713825771</v>
       </c>
       <c r="D10" t="n">
-        <v>368.4235796280485</v>
+        <v>495.2504319702414</v>
       </c>
       <c r="E10" t="n">
-        <v>368.4235796280485</v>
+        <v>347.3373383878483</v>
       </c>
       <c r="F10" t="n">
-        <v>368.4235796280485</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G10" t="n">
         <v>200.4473908899379</v>
@@ -4960,52 +4960,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.9810806808055</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916873</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458854</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U10" t="n">
-        <v>1125.478067458854</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="V10" t="n">
-        <v>1125.478067458854</v>
+        <v>1263.085384352031</v>
       </c>
       <c r="W10" t="n">
-        <v>1125.478067458854</v>
+        <v>1263.085384352031</v>
       </c>
       <c r="X10" t="n">
-        <v>1089.917445942061</v>
+        <v>1035.095833454014</v>
       </c>
       <c r="Y10" t="n">
-        <v>869.1248667985309</v>
+        <v>814.303254310484</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5039,22 +5039,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.469384076044</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.867919098985</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.792692443183</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V13" t="n">
-        <v>1501.108204237296</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="14">
@@ -5270,34 +5270,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517213</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.345997432835</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>923.4098145049279</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>773.2931750925922</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.776592304622</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.787041406604</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.994462263074</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,19 +5501,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V22" t="n">
-        <v>1977.461080510509</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517213</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2350.747103816259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2131.145638839201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1842.070412183399</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1587.385923977512</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,22 +6361,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6701,16 +6701,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,31 +6871,31 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532433</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.33868158239</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7084,7 +7084,7 @@
         <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311325</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580112</v>
@@ -7567,10 +7567,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7597,13 +7597,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7979,10 +7979,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>151.6735093079757</v>
       </c>
       <c r="L2" t="n">
-        <v>316.1841876310327</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>369.6030205083451</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>290.0325339499065</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>196.3826133675373</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>148.4266296017855</v>
       </c>
       <c r="N6" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>347.1830914177569</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.32082591987751</v>
+        <v>148.4266296017852</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>297.3459411114234</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>182.7407416374261</v>
       </c>
       <c r="V2" t="n">
-        <v>163.6015580774167</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>30.18304194477987</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-2.945315721635453e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>66.73277020259215</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>115.3527467088734</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>6.257951202384561</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>245.5619442858263</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>40.6433062151475</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>85.77246603528309</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1337281.385173621</v>
+        <v>1337281.385173622</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1337281.385173622</v>
+        <v>1337281.385173621</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1337281.385173622</v>
+        <v>1337281.385173621</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1337281.385173621</v>
+        <v>1337281.385173622</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287324</v>
+        <v>64921.82232287321</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="E2" t="n">
         <v>80714.65996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900066</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="K2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="O2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="P2" t="n">
         <v>82104.1769864284</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642841</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642836</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642836</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61714.61558823381</v>
+        <v>61714.61558823335</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26427,37 +26427,37 @@
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695033</v>
+        <v>6287.480531695019</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695012</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695042</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="J4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478854</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="L4" t="n">
         <v>14278.33979478851</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478855</v>
       </c>
       <c r="O4" t="n">
+        <v>14278.33979478855</v>
+      </c>
+      <c r="P4" t="n">
         <v>14278.33979478852</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14278.33979478853</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1025820.804037747</v>
+        <v>-1026250.362904339</v>
       </c>
       <c r="C6" t="n">
-        <v>-313208.0268902243</v>
+        <v>-313208.0268902215</v>
       </c>
       <c r="D6" t="n">
         <v>-140443.6671003292</v>
       </c>
       <c r="E6" t="n">
-        <v>-527584.2181323521</v>
+        <v>-527618.9560577879</v>
       </c>
       <c r="F6" t="n">
-        <v>-26695.35038660154</v>
+        <v>-26730.08831203726</v>
       </c>
       <c r="G6" t="n">
-        <v>-26695.35038660154</v>
+        <v>-26730.08831203719</v>
       </c>
       <c r="H6" t="n">
-        <v>-26695.35038660151</v>
+        <v>-26730.08831203723</v>
       </c>
       <c r="I6" t="n">
-        <v>-26695.35038660152</v>
+        <v>-26730.08831203727</v>
       </c>
       <c r="J6" t="n">
-        <v>-224180.0134819553</v>
+        <v>-224180.0134819554</v>
       </c>
       <c r="K6" t="n">
+        <v>-35338.27866227555</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-35338.27866227554</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-166222.7355665108</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-35338.27866227567</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-54765.99665590733</v>
+      </c>
+      <c r="P6" t="n">
         <v>-35338.27866227552</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-35338.27866227552</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-166222.7355665107</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-35338.27866227555</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-54765.99665590732</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-35338.27866227558</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>69.50346729863391</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>164.1507003927182</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>146.4966789977529</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>283.4259594153558</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>113.4898705207029</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>14.84817730413286</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>131.8427507531068</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>159.1557898251525</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>377.1576930108118</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>66.56350971409091</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>190.5046400874119</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>368.6279838366847</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>303.4297552732306</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161554</v>
+        <v>315.1028144241328</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2071989625379</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352465</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223249</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586401</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>578.2485646906453</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>437.5997363488088</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289985</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686885</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.386159166870631e-14</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35021,10 +35021,10 @@
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>518.4325785839324</v>
       </c>
       <c r="N6" t="n">
-        <v>568.1170166222649</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
         <v>338.3117987025566</v>
@@ -35036,7 +35036,7 @@
         <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>647.4981915352465</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
         <v>370.0059489821469</v>
@@ -35264,13 +35264,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>349.6326246224342</v>
+        <v>486.7384283043419</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>25.33729477225504</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35501,7 +35501,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>197.8432633066783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>237.2862717533515</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>160.8335108287862</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36832,13 +36832,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37005,7 +37005,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
         <v>144.686904791938</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
